--- a/demo.xlsx
+++ b/demo.xlsx
@@ -6,13 +6,15 @@
     <sheet state="visible" name="Demo" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Ting Alexandria" sheetId="2" r:id="rId5"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Demo!$A$1:$V$96</definedName>
+  </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1804" uniqueCount="191">
   <si>
     <t>Product ID</t>
   </si>
@@ -197,19 +199,10 @@
     <t>Web Surfer Internet</t>
   </si>
   <si>
-    <t>["Perfect for families with multiple computers"]</t>
-  </si>
-  <si>
     <t>Family Internet</t>
   </si>
   <si>
-    <t>["Perfect for online games and streaming movies"]</t>
-  </si>
-  <si>
     <t>Power Pro Internet</t>
-  </si>
-  <si>
-    <t>["Perfect for households with multiple wireless devices"]</t>
   </si>
   <si>
     <t>fuquayvarina</t>
@@ -348,6 +341,27 @@
   </si>
   <si>
     <t>internet_preorder</t>
+  </si>
+  <si>
+    <t>Mobile Family</t>
+  </si>
+  <si>
+    <t>Connect with the people in your circle</t>
+  </si>
+  <si>
+    <t>["Unlimited talk and text in North America"]</t>
+  </si>
+  <si>
+    <t>cedarfiber</t>
+  </si>
+  <si>
+    <t>Mobile International</t>
+  </si>
+  <si>
+    <t>Connect with the world</t>
+  </si>
+  <si>
+    <t>["World-wide unlimited talk and text"]</t>
   </si>
   <si>
     <t>Type</t>
@@ -981,7 +995,7 @@
       <c r="AD1" s="1"/>
       <c r="AE1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" hidden="1">
       <c r="A2" s="6">
         <v>1.0</v>
       </c>
@@ -1050,7 +1064,7 @@
       <c r="AD2" s="7"/>
       <c r="AE2" s="7"/>
     </row>
-    <row r="3">
+    <row r="3" hidden="1">
       <c r="A3" s="6">
         <v>2.0</v>
       </c>
@@ -1119,7 +1133,7 @@
       <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
     </row>
-    <row r="4">
+    <row r="4" hidden="1">
       <c r="A4" s="6">
         <v>3.0</v>
       </c>
@@ -1188,7 +1202,7 @@
       <c r="AD4" s="7"/>
       <c r="AE4" s="7"/>
     </row>
-    <row r="5">
+    <row r="5" hidden="1">
       <c r="A5" s="6">
         <v>4.0</v>
       </c>
@@ -1231,13 +1245,13 @@
         <v>43</v>
       </c>
       <c r="P5" s="6">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="R5" s="6">
-        <v>7.0</v>
+        <v>30.0</v>
       </c>
       <c r="S5" s="6" t="s">
         <v>32</v>
@@ -1257,7 +1271,7 @@
       <c r="AD5" s="7"/>
       <c r="AE5" s="7"/>
     </row>
-    <row r="6">
+    <row r="6" hidden="1">
       <c r="A6" s="6">
         <v>5.0</v>
       </c>
@@ -1300,7 +1314,7 @@
         <v>43</v>
       </c>
       <c r="P6" s="6">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q6" s="6" t="s">
         <v>32</v>
@@ -1326,7 +1340,7 @@
       <c r="AD6" s="7"/>
       <c r="AE6" s="7"/>
     </row>
-    <row r="7">
+    <row r="7" hidden="1">
       <c r="A7" s="6">
         <v>6.0</v>
       </c>
@@ -1369,7 +1383,7 @@
         <v>43</v>
       </c>
       <c r="P7" s="6">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q7" s="6" t="s">
         <v>32</v>
@@ -1395,7 +1409,7 @@
       <c r="AD7" s="7"/>
       <c r="AE7" s="7"/>
     </row>
-    <row r="8">
+    <row r="8" hidden="1">
       <c r="A8" s="6">
         <v>7.0</v>
       </c>
@@ -1464,7 +1478,7 @@
       <c r="AD8" s="7"/>
       <c r="AE8" s="7"/>
     </row>
-    <row r="9">
+    <row r="9" hidden="1">
       <c r="A9" s="6">
         <v>8.0</v>
       </c>
@@ -1525,7 +1539,7 @@
       <c r="AD9" s="7"/>
       <c r="AE9" s="7"/>
     </row>
-    <row r="10">
+    <row r="10" hidden="1">
       <c r="A10" s="6">
         <v>9.0</v>
       </c>
@@ -1594,7 +1608,7 @@
       <c r="AD10" s="7"/>
       <c r="AE10" s="7"/>
     </row>
-    <row r="11">
+    <row r="11" hidden="1">
       <c r="A11" s="6">
         <v>10.0</v>
       </c>
@@ -1663,7 +1677,7 @@
       <c r="AD11" s="7"/>
       <c r="AE11" s="7"/>
     </row>
-    <row r="12">
+    <row r="12" hidden="1">
       <c r="A12" s="6">
         <v>11.0</v>
       </c>
@@ -1732,7 +1746,7 @@
       <c r="AD12" s="7"/>
       <c r="AE12" s="7"/>
     </row>
-    <row r="13">
+    <row r="13" hidden="1">
       <c r="A13" s="6">
         <v>12.0</v>
       </c>
@@ -1763,8 +1777,8 @@
         <v>28</v>
       </c>
       <c r="L13" s="7"/>
-      <c r="M13" s="6" t="s">
-        <v>61</v>
+      <c r="M13" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="N13" s="6">
         <v>45.0</v>
@@ -1773,13 +1787,13 @@
         <v>59</v>
       </c>
       <c r="P13" s="6">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q13" s="6" t="s">
         <v>32</v>
       </c>
       <c r="R13" s="6">
-        <v>7.0</v>
+        <v>30.0</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>32</v>
@@ -1799,12 +1813,12 @@
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
     </row>
-    <row r="14">
+    <row r="14" hidden="1">
       <c r="A14" s="6">
         <v>13.0</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>28</v>
@@ -1830,8 +1844,8 @@
         <v>23</v>
       </c>
       <c r="L14" s="7"/>
-      <c r="M14" s="6" t="s">
-        <v>63</v>
+      <c r="M14" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="N14" s="6">
         <v>55.0</v>
@@ -1840,7 +1854,7 @@
         <v>59</v>
       </c>
       <c r="P14" s="6">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>32</v>
@@ -1866,12 +1880,12 @@
       <c r="AD14" s="7"/>
       <c r="AE14" s="7"/>
     </row>
-    <row r="15">
+    <row r="15" hidden="1">
       <c r="A15" s="6">
         <v>14.0</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>28</v>
@@ -1897,8 +1911,8 @@
         <v>28</v>
       </c>
       <c r="L15" s="7"/>
-      <c r="M15" s="6" t="s">
-        <v>65</v>
+      <c r="M15" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="N15" s="6">
         <v>65.0</v>
@@ -1907,7 +1921,7 @@
         <v>59</v>
       </c>
       <c r="P15" s="6">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q15" s="6" t="s">
         <v>32</v>
@@ -1933,7 +1947,7 @@
       <c r="AD15" s="7"/>
       <c r="AE15" s="7"/>
     </row>
-    <row r="16">
+    <row r="16" hidden="1">
       <c r="A16" s="6">
         <v>15.0</v>
       </c>
@@ -2000,7 +2014,7 @@
       <c r="AD16" s="7"/>
       <c r="AE16" s="7"/>
     </row>
-    <row r="17">
+    <row r="17" hidden="1">
       <c r="A17" s="6">
         <v>16.0</v>
       </c>
@@ -2061,7 +2075,7 @@
       <c r="AD17" s="7"/>
       <c r="AE17" s="7"/>
     </row>
-    <row r="18">
+    <row r="18" hidden="1">
       <c r="A18" s="6">
         <v>17.0</v>
       </c>
@@ -2099,7 +2113,7 @@
         <v>29.0</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P18" s="6">
         <v>100.0</v>
@@ -2128,7 +2142,7 @@
       <c r="AD18" s="7"/>
       <c r="AE18" s="7"/>
     </row>
-    <row r="19">
+    <row r="19" hidden="1">
       <c r="A19" s="6">
         <v>18.0</v>
       </c>
@@ -2166,7 +2180,7 @@
         <v>59.0</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P19" s="6">
         <v>500.0</v>
@@ -2195,7 +2209,7 @@
       <c r="AD19" s="7"/>
       <c r="AE19" s="7"/>
     </row>
-    <row r="20">
+    <row r="20" hidden="1">
       <c r="A20" s="6">
         <v>19.0</v>
       </c>
@@ -2235,7 +2249,7 @@
         <v>89.0</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P20" s="6">
         <v>1000.0</v>
@@ -2264,7 +2278,7 @@
       <c r="AD20" s="7"/>
       <c r="AE20" s="7"/>
     </row>
-    <row r="21">
+    <row r="21" hidden="1">
       <c r="A21" s="6">
         <v>20.0</v>
       </c>
@@ -2304,16 +2318,16 @@
         <v>45.0</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P21" s="6">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q21" s="6" t="s">
         <v>32</v>
       </c>
       <c r="R21" s="6">
-        <v>7.0</v>
+        <v>30.0</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>32</v>
@@ -2333,7 +2347,7 @@
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
     </row>
-    <row r="22">
+    <row r="22" hidden="1">
       <c r="A22" s="6">
         <v>21.0</v>
       </c>
@@ -2373,10 +2387,10 @@
         <v>35.0</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P22" s="6">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q22" s="6" t="s">
         <v>32</v>
@@ -2402,7 +2416,7 @@
       <c r="AD22" s="7"/>
       <c r="AE22" s="7"/>
     </row>
-    <row r="23">
+    <row r="23" hidden="1">
       <c r="A23" s="6">
         <v>22.0</v>
       </c>
@@ -2442,10 +2456,10 @@
         <v>40.0</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P23" s="6">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q23" s="6" t="s">
         <v>32</v>
@@ -2471,7 +2485,7 @@
       <c r="AD23" s="7"/>
       <c r="AE23" s="7"/>
     </row>
-    <row r="24">
+    <row r="24" hidden="1">
       <c r="A24" s="6">
         <v>23.0</v>
       </c>
@@ -2509,7 +2523,7 @@
         <v>80.0</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P24" s="6">
         <v>25.0</v>
@@ -2538,7 +2552,7 @@
       <c r="AD24" s="7"/>
       <c r="AE24" s="7"/>
     </row>
-    <row r="25">
+    <row r="25" hidden="1">
       <c r="A25" s="6">
         <v>24.0</v>
       </c>
@@ -2578,7 +2592,7 @@
         <v>10.0</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="6"/>
@@ -2599,7 +2613,7 @@
       <c r="AD25" s="7"/>
       <c r="AE25" s="7"/>
     </row>
-    <row r="26">
+    <row r="26" hidden="1">
       <c r="A26" s="6">
         <v>25.0</v>
       </c>
@@ -2637,7 +2651,7 @@
         <v>29.0</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P26" s="6">
         <v>100.0</v>
@@ -2666,7 +2680,7 @@
       <c r="AD26" s="7"/>
       <c r="AE26" s="7"/>
     </row>
-    <row r="27">
+    <row r="27" hidden="1">
       <c r="A27" s="6">
         <v>26.0</v>
       </c>
@@ -2704,7 +2718,7 @@
         <v>59.0</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P27" s="6">
         <v>500.0</v>
@@ -2733,7 +2747,7 @@
       <c r="AD27" s="7"/>
       <c r="AE27" s="7"/>
     </row>
-    <row r="28">
+    <row r="28" hidden="1">
       <c r="A28" s="6">
         <v>27.0</v>
       </c>
@@ -2773,7 +2787,7 @@
         <v>89.0</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P28" s="6">
         <v>1000.0</v>
@@ -2802,7 +2816,7 @@
       <c r="AD28" s="7"/>
       <c r="AE28" s="7"/>
     </row>
-    <row r="29">
+    <row r="29" hidden="1">
       <c r="A29" s="6">
         <v>28.0</v>
       </c>
@@ -2842,16 +2856,16 @@
         <v>45.0</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P29" s="6">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="Q29" s="6" t="s">
         <v>32</v>
       </c>
       <c r="R29" s="6">
-        <v>7.0</v>
+        <v>30.0</v>
       </c>
       <c r="S29" s="6" t="s">
         <v>32</v>
@@ -2871,7 +2885,7 @@
       <c r="AD29" s="7"/>
       <c r="AE29" s="7"/>
     </row>
-    <row r="30">
+    <row r="30" hidden="1">
       <c r="A30" s="6">
         <v>29.0</v>
       </c>
@@ -2911,10 +2925,10 @@
         <v>35.0</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P30" s="6">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
       <c r="Q30" s="6" t="s">
         <v>32</v>
@@ -2940,7 +2954,7 @@
       <c r="AD30" s="7"/>
       <c r="AE30" s="7"/>
     </row>
-    <row r="31">
+    <row r="31" hidden="1">
       <c r="A31" s="6">
         <v>30.0</v>
       </c>
@@ -2980,10 +2994,10 @@
         <v>40.0</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P31" s="6">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
       <c r="Q31" s="6" t="s">
         <v>32</v>
@@ -3009,7 +3023,7 @@
       <c r="AD31" s="7"/>
       <c r="AE31" s="7"/>
     </row>
-    <row r="32">
+    <row r="32" hidden="1">
       <c r="A32" s="6">
         <v>31.0</v>
       </c>
@@ -3047,7 +3061,7 @@
         <v>80.0</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P32" s="6">
         <v>25.0</v>
@@ -3076,7 +3090,7 @@
       <c r="AD32" s="7"/>
       <c r="AE32" s="7"/>
     </row>
-    <row r="33">
+    <row r="33" hidden="1">
       <c r="A33" s="6">
         <v>32.0</v>
       </c>
@@ -3116,7 +3130,7 @@
         <v>10.0</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P33" s="6"/>
       <c r="Q33" s="6"/>
@@ -3137,12 +3151,12 @@
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
     </row>
-    <row r="34">
+    <row r="34" hidden="1">
       <c r="A34" s="6">
         <v>33.0</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>23</v>
@@ -3151,7 +3165,7 @@
         <v>23</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>25</v>
@@ -3160,7 +3174,7 @@
         <v>26</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -3169,7 +3183,7 @@
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N34" s="6">
         <v>7.0</v>
@@ -3184,7 +3198,7 @@
       <c r="T34" s="9"/>
       <c r="U34" s="7"/>
       <c r="V34" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W34" s="7"/>
       <c r="X34" s="7"/>
@@ -3196,12 +3210,12 @@
       <c r="AD34" s="7"/>
       <c r="AE34" s="7"/>
     </row>
-    <row r="35">
+    <row r="35" hidden="1">
       <c r="A35" s="6">
         <v>34.0</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>23</v>
@@ -3210,7 +3224,7 @@
         <v>23</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>25</v>
@@ -3219,7 +3233,7 @@
         <v>26</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -3228,7 +3242,7 @@
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N35" s="6">
         <v>11.0</v>
@@ -3243,7 +3257,7 @@
       <c r="T35" s="9"/>
       <c r="U35" s="7"/>
       <c r="V35" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W35" s="7"/>
       <c r="X35" s="7"/>
@@ -3255,12 +3269,12 @@
       <c r="AD35" s="7"/>
       <c r="AE35" s="7"/>
     </row>
-    <row r="36">
+    <row r="36" hidden="1">
       <c r="A36" s="6">
         <v>35.0</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>23</v>
@@ -3269,7 +3283,7 @@
         <v>23</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>25</v>
@@ -3278,7 +3292,7 @@
         <v>26</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -3287,7 +3301,7 @@
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N36" s="6">
         <v>18.0</v>
@@ -3302,7 +3316,7 @@
       <c r="T36" s="9"/>
       <c r="U36" s="7"/>
       <c r="V36" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W36" s="7"/>
       <c r="X36" s="7"/>
@@ -3314,12 +3328,12 @@
       <c r="AD36" s="7"/>
       <c r="AE36" s="7"/>
     </row>
-    <row r="37">
+    <row r="37" hidden="1">
       <c r="A37" s="6">
         <v>36.0</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>23</v>
@@ -3328,7 +3342,7 @@
         <v>23</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>25</v>
@@ -3337,7 +3351,7 @@
         <v>26</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -3346,7 +3360,7 @@
       </c>
       <c r="L37" s="7"/>
       <c r="M37" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N37" s="6">
         <v>7.0</v>
@@ -3361,7 +3375,7 @@
       <c r="T37" s="9"/>
       <c r="U37" s="7"/>
       <c r="V37" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W37" s="7"/>
       <c r="X37" s="7"/>
@@ -3373,12 +3387,12 @@
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
     </row>
-    <row r="38">
+    <row r="38" hidden="1">
       <c r="A38" s="6">
         <v>37.0</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>23</v>
@@ -3387,7 +3401,7 @@
         <v>23</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>25</v>
@@ -3396,7 +3410,7 @@
         <v>26</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -3405,7 +3419,7 @@
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N38" s="6">
         <v>11.0</v>
@@ -3420,7 +3434,7 @@
       <c r="T38" s="9"/>
       <c r="U38" s="7"/>
       <c r="V38" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
@@ -3432,12 +3446,12 @@
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
     </row>
-    <row r="39">
+    <row r="39" hidden="1">
       <c r="A39" s="6">
         <v>38.0</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>23</v>
@@ -3446,7 +3460,7 @@
         <v>23</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>25</v>
@@ -3455,7 +3469,7 @@
         <v>26</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -3464,7 +3478,7 @@
       </c>
       <c r="L39" s="7"/>
       <c r="M39" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N39" s="6">
         <v>18.0</v>
@@ -3479,7 +3493,7 @@
       <c r="T39" s="9"/>
       <c r="U39" s="7"/>
       <c r="V39" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W39" s="7"/>
       <c r="X39" s="7"/>
@@ -3491,12 +3505,12 @@
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
     </row>
-    <row r="40">
+    <row r="40" hidden="1">
       <c r="A40" s="6">
         <v>39.0</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>23</v>
@@ -3505,7 +3519,7 @@
         <v>23</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>25</v>
@@ -3514,7 +3528,7 @@
         <v>26</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -3523,7 +3537,7 @@
       </c>
       <c r="L40" s="7"/>
       <c r="M40" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N40" s="6">
         <v>7.0</v>
@@ -3538,7 +3552,7 @@
       <c r="T40" s="9"/>
       <c r="U40" s="7"/>
       <c r="V40" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W40" s="7"/>
       <c r="X40" s="7"/>
@@ -3550,12 +3564,12 @@
       <c r="AD40" s="7"/>
       <c r="AE40" s="7"/>
     </row>
-    <row r="41">
+    <row r="41" hidden="1">
       <c r="A41" s="6">
         <v>40.0</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>23</v>
@@ -3564,7 +3578,7 @@
         <v>23</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>25</v>
@@ -3573,7 +3587,7 @@
         <v>26</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -3582,7 +3596,7 @@
       </c>
       <c r="L41" s="7"/>
       <c r="M41" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N41" s="6">
         <v>11.0</v>
@@ -3597,7 +3611,7 @@
       <c r="T41" s="9"/>
       <c r="U41" s="7"/>
       <c r="V41" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W41" s="7"/>
       <c r="X41" s="7"/>
@@ -3609,12 +3623,12 @@
       <c r="AD41" s="7"/>
       <c r="AE41" s="7"/>
     </row>
-    <row r="42">
+    <row r="42" hidden="1">
       <c r="A42" s="6">
         <v>41.0</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>23</v>
@@ -3623,7 +3637,7 @@
         <v>23</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>25</v>
@@ -3632,7 +3646,7 @@
         <v>26</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -3641,7 +3655,7 @@
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N42" s="6">
         <v>18.0</v>
@@ -3656,7 +3670,7 @@
       <c r="T42" s="9"/>
       <c r="U42" s="7"/>
       <c r="V42" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W42" s="7"/>
       <c r="X42" s="7"/>
@@ -3668,12 +3682,12 @@
       <c r="AD42" s="7"/>
       <c r="AE42" s="7"/>
     </row>
-    <row r="43">
+    <row r="43" hidden="1">
       <c r="A43" s="6">
         <v>42.0</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>23</v>
@@ -3682,7 +3696,7 @@
         <v>23</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>25</v>
@@ -3691,7 +3705,7 @@
         <v>26</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -3700,13 +3714,13 @@
       </c>
       <c r="L43" s="7"/>
       <c r="M43" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N43" s="6">
         <v>7.0</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
@@ -3715,7 +3729,7 @@
       <c r="T43" s="9"/>
       <c r="U43" s="7"/>
       <c r="V43" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W43" s="7"/>
       <c r="X43" s="7"/>
@@ -3727,12 +3741,12 @@
       <c r="AD43" s="7"/>
       <c r="AE43" s="7"/>
     </row>
-    <row r="44">
+    <row r="44" hidden="1">
       <c r="A44" s="6">
         <v>43.0</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>23</v>
@@ -3741,7 +3755,7 @@
         <v>23</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>25</v>
@@ -3750,7 +3764,7 @@
         <v>26</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -3759,13 +3773,13 @@
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N44" s="6">
         <v>11.0</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
@@ -3774,7 +3788,7 @@
       <c r="T44" s="9"/>
       <c r="U44" s="7"/>
       <c r="V44" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
@@ -3786,12 +3800,12 @@
       <c r="AD44" s="7"/>
       <c r="AE44" s="7"/>
     </row>
-    <row r="45">
+    <row r="45" hidden="1">
       <c r="A45" s="6">
         <v>44.0</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>23</v>
@@ -3800,7 +3814,7 @@
         <v>23</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>25</v>
@@ -3809,7 +3823,7 @@
         <v>26</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -3818,13 +3832,13 @@
       </c>
       <c r="L45" s="7"/>
       <c r="M45" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N45" s="6">
         <v>18.0</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
@@ -3833,7 +3847,7 @@
       <c r="T45" s="9"/>
       <c r="U45" s="7"/>
       <c r="V45" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W45" s="7"/>
       <c r="X45" s="7"/>
@@ -3845,12 +3859,12 @@
       <c r="AD45" s="7"/>
       <c r="AE45" s="7"/>
     </row>
-    <row r="46">
+    <row r="46" hidden="1">
       <c r="A46" s="6">
         <v>45.0</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>23</v>
@@ -3859,7 +3873,7 @@
         <v>23</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>25</v>
@@ -3868,7 +3882,7 @@
         <v>26</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -3877,13 +3891,13 @@
       </c>
       <c r="L46" s="7"/>
       <c r="M46" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="N46" s="6">
         <v>7.0</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
@@ -3892,7 +3906,7 @@
       <c r="T46" s="9"/>
       <c r="U46" s="7"/>
       <c r="V46" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W46" s="7"/>
       <c r="X46" s="7"/>
@@ -3904,12 +3918,12 @@
       <c r="AD46" s="7"/>
       <c r="AE46" s="7"/>
     </row>
-    <row r="47">
+    <row r="47" hidden="1">
       <c r="A47" s="6">
         <v>46.0</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>23</v>
@@ -3918,7 +3932,7 @@
         <v>23</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>25</v>
@@ -3927,7 +3941,7 @@
         <v>26</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -3936,13 +3950,13 @@
       </c>
       <c r="L47" s="7"/>
       <c r="M47" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="N47" s="6">
         <v>11.0</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
@@ -3951,7 +3965,7 @@
       <c r="T47" s="9"/>
       <c r="U47" s="7"/>
       <c r="V47" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W47" s="7"/>
       <c r="X47" s="7"/>
@@ -3963,12 +3977,12 @@
       <c r="AD47" s="7"/>
       <c r="AE47" s="7"/>
     </row>
-    <row r="48">
+    <row r="48" hidden="1">
       <c r="A48" s="6">
         <v>47.0</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>23</v>
@@ -3977,7 +3991,7 @@
         <v>23</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>25</v>
@@ -3986,7 +4000,7 @@
         <v>26</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -3995,13 +4009,13 @@
       </c>
       <c r="L48" s="7"/>
       <c r="M48" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="N48" s="6">
         <v>18.0</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
@@ -4010,7 +4024,7 @@
       <c r="T48" s="9"/>
       <c r="U48" s="7"/>
       <c r="V48" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W48" s="7"/>
       <c r="X48" s="7"/>
@@ -4022,12 +4036,12 @@
       <c r="AD48" s="7"/>
       <c r="AE48" s="7"/>
     </row>
-    <row r="49">
+    <row r="49" hidden="1">
       <c r="A49" s="6">
         <v>48.0</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>23</v>
@@ -4036,7 +4050,7 @@
         <v>23</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>25</v>
@@ -4045,7 +4059,7 @@
         <v>26</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
@@ -4067,7 +4081,7 @@
       <c r="T49" s="9"/>
       <c r="U49" s="7"/>
       <c r="V49" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W49" s="7"/>
       <c r="X49" s="7"/>
@@ -4079,12 +4093,12 @@
       <c r="AD49" s="7"/>
       <c r="AE49" s="7"/>
     </row>
-    <row r="50">
+    <row r="50" hidden="1">
       <c r="A50" s="6">
         <v>49.0</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>23</v>
@@ -4093,16 +4107,16 @@
         <v>23</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
@@ -4124,7 +4138,7 @@
       <c r="T50" s="9"/>
       <c r="U50" s="7"/>
       <c r="V50" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W50" s="7"/>
       <c r="X50" s="7"/>
@@ -4136,12 +4150,12 @@
       <c r="AD50" s="7"/>
       <c r="AE50" s="7"/>
     </row>
-    <row r="51">
+    <row r="51" hidden="1">
       <c r="A51" s="6">
         <v>50.0</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>23</v>
@@ -4150,16 +4164,16 @@
         <v>23</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
@@ -4181,7 +4195,7 @@
       <c r="T51" s="9"/>
       <c r="U51" s="7"/>
       <c r="V51" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W51" s="7"/>
       <c r="X51" s="7"/>
@@ -4193,12 +4207,12 @@
       <c r="AD51" s="7"/>
       <c r="AE51" s="7"/>
     </row>
-    <row r="52">
+    <row r="52" hidden="1">
       <c r="A52" s="6">
         <v>51.0</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>23</v>
@@ -4207,7 +4221,7 @@
         <v>23</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>25</v>
@@ -4216,7 +4230,7 @@
         <v>26</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -4238,7 +4252,7 @@
       <c r="T52" s="9"/>
       <c r="U52" s="7"/>
       <c r="V52" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W52" s="7"/>
       <c r="X52" s="7"/>
@@ -4250,12 +4264,12 @@
       <c r="AD52" s="7"/>
       <c r="AE52" s="7"/>
     </row>
-    <row r="53">
+    <row r="53" hidden="1">
       <c r="A53" s="6">
         <v>52.0</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>23</v>
@@ -4264,16 +4278,16 @@
         <v>23</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -4295,7 +4309,7 @@
       <c r="T53" s="9"/>
       <c r="U53" s="7"/>
       <c r="V53" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
@@ -4307,12 +4321,12 @@
       <c r="AD53" s="7"/>
       <c r="AE53" s="7"/>
     </row>
-    <row r="54">
+    <row r="54" hidden="1">
       <c r="A54" s="6">
         <v>53.0</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>23</v>
@@ -4321,16 +4335,16 @@
         <v>23</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -4352,7 +4366,7 @@
       <c r="T54" s="9"/>
       <c r="U54" s="7"/>
       <c r="V54" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W54" s="7"/>
       <c r="X54" s="7"/>
@@ -4364,12 +4378,12 @@
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
     </row>
-    <row r="55">
+    <row r="55" hidden="1">
       <c r="A55" s="6">
         <v>54.0</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>23</v>
@@ -4378,7 +4392,7 @@
         <v>23</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>25</v>
@@ -4387,7 +4401,7 @@
         <v>26</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
@@ -4409,7 +4423,7 @@
       <c r="T55" s="9"/>
       <c r="U55" s="7"/>
       <c r="V55" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W55" s="7"/>
       <c r="X55" s="7"/>
@@ -4421,12 +4435,12 @@
       <c r="AD55" s="7"/>
       <c r="AE55" s="7"/>
     </row>
-    <row r="56">
+    <row r="56" hidden="1">
       <c r="A56" s="6">
         <v>55.0</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>23</v>
@@ -4435,16 +4449,16 @@
         <v>23</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F56" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
@@ -4466,7 +4480,7 @@
       <c r="T56" s="9"/>
       <c r="U56" s="7"/>
       <c r="V56" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W56" s="7"/>
       <c r="X56" s="7"/>
@@ -4478,12 +4492,12 @@
       <c r="AD56" s="7"/>
       <c r="AE56" s="7"/>
     </row>
-    <row r="57">
+    <row r="57" hidden="1">
       <c r="A57" s="6">
         <v>56.0</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>23</v>
@@ -4492,16 +4506,16 @@
         <v>23</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
@@ -4523,7 +4537,7 @@
       <c r="T57" s="9"/>
       <c r="U57" s="7"/>
       <c r="V57" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W57" s="7"/>
       <c r="X57" s="7"/>
@@ -4535,12 +4549,12 @@
       <c r="AD57" s="7"/>
       <c r="AE57" s="7"/>
     </row>
-    <row r="58">
+    <row r="58" hidden="1">
       <c r="A58" s="6">
         <v>57.0</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>23</v>
@@ -4549,7 +4563,7 @@
         <v>23</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>25</v>
@@ -4558,7 +4572,7 @@
         <v>26</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -4571,7 +4585,7 @@
         <v>9.0</v>
       </c>
       <c r="O58" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
@@ -4580,7 +4594,7 @@
       <c r="T58" s="9"/>
       <c r="U58" s="7"/>
       <c r="V58" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W58" s="7"/>
       <c r="X58" s="7"/>
@@ -4592,12 +4606,12 @@
       <c r="AD58" s="7"/>
       <c r="AE58" s="7"/>
     </row>
-    <row r="59">
+    <row r="59" hidden="1">
       <c r="A59" s="6">
         <v>58.0</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>23</v>
@@ -4606,16 +4620,16 @@
         <v>23</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -4628,7 +4642,7 @@
         <v>179.0</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
@@ -4637,7 +4651,7 @@
       <c r="T59" s="9"/>
       <c r="U59" s="7"/>
       <c r="V59" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W59" s="7"/>
       <c r="X59" s="7"/>
@@ -4649,12 +4663,12 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
     </row>
-    <row r="60">
+    <row r="60" hidden="1">
       <c r="A60" s="6">
         <v>59.0</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>23</v>
@@ -4663,16 +4677,16 @@
         <v>23</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -4685,7 +4699,7 @@
         <v>49.0</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
@@ -4694,7 +4708,7 @@
       <c r="T60" s="9"/>
       <c r="U60" s="7"/>
       <c r="V60" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W60" s="7"/>
       <c r="X60" s="7"/>
@@ -4706,12 +4720,12 @@
       <c r="AD60" s="7"/>
       <c r="AE60" s="7"/>
     </row>
-    <row r="61">
+    <row r="61" hidden="1">
       <c r="A61" s="6">
         <v>60.0</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>23</v>
@@ -4720,7 +4734,7 @@
         <v>23</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>25</v>
@@ -4729,7 +4743,7 @@
         <v>26</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -4742,7 +4756,7 @@
         <v>9.0</v>
       </c>
       <c r="O61" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
@@ -4751,7 +4765,7 @@
       <c r="T61" s="9"/>
       <c r="U61" s="7"/>
       <c r="V61" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
@@ -4763,12 +4777,12 @@
       <c r="AD61" s="7"/>
       <c r="AE61" s="7"/>
     </row>
-    <row r="62">
+    <row r="62" hidden="1">
       <c r="A62" s="6">
         <v>61.0</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>23</v>
@@ -4777,16 +4791,16 @@
         <v>23</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H62" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
@@ -4799,7 +4813,7 @@
         <v>179.0</v>
       </c>
       <c r="O62" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
@@ -4808,7 +4822,7 @@
       <c r="T62" s="9"/>
       <c r="U62" s="7"/>
       <c r="V62" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W62" s="7"/>
       <c r="X62" s="7"/>
@@ -4820,12 +4834,12 @@
       <c r="AD62" s="7"/>
       <c r="AE62" s="7"/>
     </row>
-    <row r="63">
+    <row r="63" hidden="1">
       <c r="A63" s="6">
         <v>62.0</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>23</v>
@@ -4834,16 +4848,16 @@
         <v>23</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
@@ -4856,7 +4870,7 @@
         <v>49.0</v>
       </c>
       <c r="O63" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
@@ -4865,7 +4879,7 @@
       <c r="T63" s="9"/>
       <c r="U63" s="7"/>
       <c r="V63" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
@@ -4877,12 +4891,12 @@
       <c r="AD63" s="7"/>
       <c r="AE63" s="7"/>
     </row>
-    <row r="64">
+    <row r="64" hidden="1">
       <c r="A64" s="6">
         <v>63.0</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>23</v>
@@ -4891,16 +4905,16 @@
         <v>23</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
@@ -4909,7 +4923,7 @@
       </c>
       <c r="L64" s="7"/>
       <c r="M64" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N64" s="6">
         <v>0.0</v>
@@ -4924,7 +4938,7 @@
       <c r="T64" s="9"/>
       <c r="U64" s="7"/>
       <c r="V64" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W64" s="7"/>
       <c r="X64" s="7"/>
@@ -4936,12 +4950,12 @@
       <c r="AD64" s="7"/>
       <c r="AE64" s="7"/>
     </row>
-    <row r="65">
+    <row r="65" hidden="1">
       <c r="A65" s="6">
         <v>64.0</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>23</v>
@@ -4950,16 +4964,16 @@
         <v>23</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
@@ -4968,7 +4982,7 @@
       </c>
       <c r="L65" s="7"/>
       <c r="M65" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N65" s="6">
         <v>99.0</v>
@@ -4983,7 +4997,7 @@
       <c r="T65" s="9"/>
       <c r="U65" s="7"/>
       <c r="V65" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W65" s="7"/>
       <c r="X65" s="7"/>
@@ -4995,12 +5009,12 @@
       <c r="AD65" s="7"/>
       <c r="AE65" s="7"/>
     </row>
-    <row r="66">
+    <row r="66" hidden="1">
       <c r="A66" s="6">
         <v>65.0</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>23</v>
@@ -5009,16 +5023,16 @@
         <v>23</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
@@ -5027,7 +5041,7 @@
       </c>
       <c r="L66" s="7"/>
       <c r="M66" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N66" s="6">
         <v>199.0</v>
@@ -5042,7 +5056,7 @@
       <c r="T66" s="9"/>
       <c r="U66" s="7"/>
       <c r="V66" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W66" s="7"/>
       <c r="X66" s="7"/>
@@ -5054,12 +5068,12 @@
       <c r="AD66" s="7"/>
       <c r="AE66" s="7"/>
     </row>
-    <row r="67">
+    <row r="67" hidden="1">
       <c r="A67" s="6">
         <v>66.0</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>23</v>
@@ -5068,16 +5082,16 @@
         <v>23</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -5086,7 +5100,7 @@
       </c>
       <c r="L67" s="7"/>
       <c r="M67" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N67" s="6">
         <v>0.0</v>
@@ -5101,7 +5115,7 @@
       <c r="T67" s="9"/>
       <c r="U67" s="7"/>
       <c r="V67" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
@@ -5113,12 +5127,12 @@
       <c r="AD67" s="7"/>
       <c r="AE67" s="7"/>
     </row>
-    <row r="68">
+    <row r="68" hidden="1">
       <c r="A68" s="6">
         <v>67.0</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>23</v>
@@ -5127,16 +5141,16 @@
         <v>23</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
@@ -5145,7 +5159,7 @@
       </c>
       <c r="L68" s="7"/>
       <c r="M68" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N68" s="6">
         <v>99.0</v>
@@ -5160,7 +5174,7 @@
       <c r="T68" s="9"/>
       <c r="U68" s="7"/>
       <c r="V68" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
@@ -5172,12 +5186,12 @@
       <c r="AD68" s="7"/>
       <c r="AE68" s="7"/>
     </row>
-    <row r="69">
+    <row r="69" hidden="1">
       <c r="A69" s="6">
         <v>68.0</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>23</v>
@@ -5186,16 +5200,16 @@
         <v>23</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H69" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
@@ -5204,7 +5218,7 @@
       </c>
       <c r="L69" s="7"/>
       <c r="M69" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N69" s="6">
         <v>199.0</v>
@@ -5219,7 +5233,7 @@
       <c r="T69" s="9"/>
       <c r="U69" s="7"/>
       <c r="V69" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W69" s="7"/>
       <c r="X69" s="7"/>
@@ -5231,12 +5245,12 @@
       <c r="AD69" s="7"/>
       <c r="AE69" s="7"/>
     </row>
-    <row r="70">
+    <row r="70" hidden="1">
       <c r="A70" s="6">
         <v>69.0</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>23</v>
@@ -5245,16 +5259,16 @@
         <v>23</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F70" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H70" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -5263,7 +5277,7 @@
       </c>
       <c r="L70" s="7"/>
       <c r="M70" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N70" s="6">
         <v>0.0</v>
@@ -5278,7 +5292,7 @@
       <c r="T70" s="9"/>
       <c r="U70" s="7"/>
       <c r="V70" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W70" s="7"/>
       <c r="X70" s="7"/>
@@ -5290,12 +5304,12 @@
       <c r="AD70" s="7"/>
       <c r="AE70" s="7"/>
     </row>
-    <row r="71">
+    <row r="71" hidden="1">
       <c r="A71" s="6">
         <v>70.0</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>23</v>
@@ -5304,16 +5318,16 @@
         <v>23</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -5322,7 +5336,7 @@
       </c>
       <c r="L71" s="7"/>
       <c r="M71" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N71" s="6">
         <v>99.0</v>
@@ -5337,7 +5351,7 @@
       <c r="T71" s="9"/>
       <c r="U71" s="7"/>
       <c r="V71" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W71" s="7"/>
       <c r="X71" s="7"/>
@@ -5349,12 +5363,12 @@
       <c r="AD71" s="7"/>
       <c r="AE71" s="7"/>
     </row>
-    <row r="72">
+    <row r="72" hidden="1">
       <c r="A72" s="6">
         <v>71.0</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>23</v>
@@ -5363,16 +5377,16 @@
         <v>23</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
@@ -5381,7 +5395,7 @@
       </c>
       <c r="L72" s="7"/>
       <c r="M72" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N72" s="6">
         <v>199.0</v>
@@ -5396,7 +5410,7 @@
       <c r="T72" s="9"/>
       <c r="U72" s="7"/>
       <c r="V72" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W72" s="7"/>
       <c r="X72" s="7"/>
@@ -5408,12 +5422,12 @@
       <c r="AD72" s="7"/>
       <c r="AE72" s="7"/>
     </row>
-    <row r="73">
+    <row r="73" hidden="1">
       <c r="A73" s="6">
         <v>72.0</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>23</v>
@@ -5422,16 +5436,16 @@
         <v>23</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
@@ -5440,13 +5454,13 @@
       </c>
       <c r="L73" s="7"/>
       <c r="M73" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N73" s="6">
         <v>0.0</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
@@ -5455,7 +5469,7 @@
       <c r="T73" s="9"/>
       <c r="U73" s="7"/>
       <c r="V73" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W73" s="7"/>
       <c r="X73" s="7"/>
@@ -5467,12 +5481,12 @@
       <c r="AD73" s="7"/>
       <c r="AE73" s="7"/>
     </row>
-    <row r="74">
+    <row r="74" hidden="1">
       <c r="A74" s="6">
         <v>73.0</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>23</v>
@@ -5481,16 +5495,16 @@
         <v>23</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F74" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I74" s="7"/>
       <c r="J74" s="7"/>
@@ -5499,13 +5513,13 @@
       </c>
       <c r="L74" s="7"/>
       <c r="M74" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N74" s="6">
         <v>99.0</v>
       </c>
       <c r="O74" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
@@ -5514,7 +5528,7 @@
       <c r="T74" s="9"/>
       <c r="U74" s="7"/>
       <c r="V74" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W74" s="7"/>
       <c r="X74" s="7"/>
@@ -5526,12 +5540,12 @@
       <c r="AD74" s="7"/>
       <c r="AE74" s="7"/>
     </row>
-    <row r="75">
+    <row r="75" hidden="1">
       <c r="A75" s="6">
         <v>74.0</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>23</v>
@@ -5540,16 +5554,16 @@
         <v>23</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
@@ -5558,13 +5572,13 @@
       </c>
       <c r="L75" s="7"/>
       <c r="M75" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N75" s="6">
         <v>199.0</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
@@ -5573,7 +5587,7 @@
       <c r="T75" s="9"/>
       <c r="U75" s="7"/>
       <c r="V75" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W75" s="7"/>
       <c r="X75" s="7"/>
@@ -5585,12 +5599,12 @@
       <c r="AD75" s="7"/>
       <c r="AE75" s="7"/>
     </row>
-    <row r="76">
+    <row r="76" hidden="1">
       <c r="A76" s="6">
         <v>75.0</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>23</v>
@@ -5599,16 +5613,16 @@
         <v>23</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I76" s="7"/>
       <c r="J76" s="7"/>
@@ -5617,13 +5631,13 @@
       </c>
       <c r="L76" s="7"/>
       <c r="M76" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N76" s="6">
         <v>0.0</v>
       </c>
       <c r="O76" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
@@ -5632,7 +5646,7 @@
       <c r="T76" s="9"/>
       <c r="U76" s="7"/>
       <c r="V76" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W76" s="7"/>
       <c r="X76" s="7"/>
@@ -5644,12 +5658,12 @@
       <c r="AD76" s="7"/>
       <c r="AE76" s="7"/>
     </row>
-    <row r="77">
+    <row r="77" hidden="1">
       <c r="A77" s="6">
         <v>76.0</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>23</v>
@@ -5658,16 +5672,16 @@
         <v>23</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I77" s="7"/>
       <c r="J77" s="7"/>
@@ -5676,13 +5690,13 @@
       </c>
       <c r="L77" s="7"/>
       <c r="M77" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N77" s="6">
         <v>99.0</v>
       </c>
       <c r="O77" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
@@ -5691,7 +5705,7 @@
       <c r="T77" s="9"/>
       <c r="U77" s="7"/>
       <c r="V77" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W77" s="7"/>
       <c r="X77" s="7"/>
@@ -5703,12 +5717,12 @@
       <c r="AD77" s="7"/>
       <c r="AE77" s="7"/>
     </row>
-    <row r="78">
+    <row r="78" hidden="1">
       <c r="A78" s="6">
         <v>77.0</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>23</v>
@@ -5717,16 +5731,16 @@
         <v>23</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
@@ -5735,13 +5749,13 @@
       </c>
       <c r="L78" s="7"/>
       <c r="M78" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N78" s="6">
         <v>199.0</v>
       </c>
       <c r="O78" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
@@ -5750,7 +5764,7 @@
       <c r="T78" s="9"/>
       <c r="U78" s="7"/>
       <c r="V78" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W78" s="7"/>
       <c r="X78" s="7"/>
@@ -5762,12 +5776,12 @@
       <c r="AD78" s="7"/>
       <c r="AE78" s="7"/>
     </row>
-    <row r="79">
+    <row r="79" hidden="1">
       <c r="A79" s="6">
         <v>78.0</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>23</v>
@@ -5776,16 +5790,16 @@
         <v>23</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I79" s="7"/>
       <c r="J79" s="7"/>
@@ -5794,7 +5808,7 @@
       </c>
       <c r="L79" s="7"/>
       <c r="M79" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N79" s="6">
         <v>0.0</v>
@@ -5809,7 +5823,7 @@
       <c r="T79" s="9"/>
       <c r="U79" s="7"/>
       <c r="V79" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="W79" s="7"/>
       <c r="X79" s="7"/>
@@ -5821,12 +5835,12 @@
       <c r="AD79" s="7"/>
       <c r="AE79" s="7"/>
     </row>
-    <row r="80">
+    <row r="80" hidden="1">
       <c r="A80" s="6">
         <v>79.0</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>23</v>
@@ -5835,16 +5849,16 @@
         <v>23</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I80" s="7"/>
       <c r="J80" s="7"/>
@@ -5853,7 +5867,7 @@
       </c>
       <c r="L80" s="7"/>
       <c r="M80" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N80" s="6">
         <v>0.0</v>
@@ -5868,7 +5882,7 @@
       <c r="T80" s="9"/>
       <c r="U80" s="7"/>
       <c r="V80" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="W80" s="7"/>
       <c r="X80" s="7"/>
@@ -5880,12 +5894,12 @@
       <c r="AD80" s="7"/>
       <c r="AE80" s="7"/>
     </row>
-    <row r="81">
+    <row r="81" hidden="1">
       <c r="A81" s="6">
         <v>80.0</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>23</v>
@@ -5894,16 +5908,16 @@
         <v>23</v>
       </c>
       <c r="E81" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F81" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
@@ -5912,13 +5926,13 @@
       </c>
       <c r="L81" s="7"/>
       <c r="M81" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N81" s="6">
         <v>0.0</v>
       </c>
       <c r="O81" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
@@ -5927,7 +5941,7 @@
       <c r="T81" s="9"/>
       <c r="U81" s="7"/>
       <c r="V81" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
@@ -5939,12 +5953,12 @@
       <c r="AD81" s="7"/>
       <c r="AE81" s="7"/>
     </row>
-    <row r="82">
+    <row r="82" hidden="1">
       <c r="A82" s="6">
         <v>81.0</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>23</v>
@@ -5953,16 +5967,16 @@
         <v>23</v>
       </c>
       <c r="E82" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -5971,13 +5985,13 @@
       </c>
       <c r="L82" s="7"/>
       <c r="M82" s="8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N82" s="6">
         <v>0.0</v>
       </c>
       <c r="O82" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
@@ -5986,7 +6000,7 @@
       <c r="T82" s="9"/>
       <c r="U82" s="7"/>
       <c r="V82" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="W82" s="7"/>
       <c r="X82" s="7"/>
@@ -5998,12 +6012,12 @@
       <c r="AD82" s="7"/>
       <c r="AE82" s="7"/>
     </row>
-    <row r="83">
+    <row r="83" hidden="1">
       <c r="A83" s="6">
         <v>82.0</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>23</v>
@@ -6015,7 +6029,7 @@
         <v>24</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>26</v>
@@ -6029,10 +6043,10 @@
         <v>28</v>
       </c>
       <c r="L83" s="11" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M83" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N83" s="6">
         <v>45.0</v>
@@ -6067,12 +6081,12 @@
       <c r="AD83" s="7"/>
       <c r="AE83" s="7"/>
     </row>
-    <row r="84">
+    <row r="84" hidden="1">
       <c r="A84" s="6">
         <v>83.0</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>23</v>
@@ -6084,7 +6098,7 @@
         <v>24</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>26</v>
@@ -6098,7 +6112,7 @@
         <v>23</v>
       </c>
       <c r="L84" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M84" s="8" t="s">
         <v>42</v>
@@ -6136,12 +6150,12 @@
       <c r="AD84" s="7"/>
       <c r="AE84" s="7"/>
     </row>
-    <row r="85">
+    <row r="85" hidden="1">
       <c r="A85" s="6">
         <v>84.0</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>23</v>
@@ -6153,7 +6167,7 @@
         <v>24</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G85" s="6" t="s">
         <v>26</v>
@@ -6170,7 +6184,7 @@
         <v>49</v>
       </c>
       <c r="M85" s="12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="N85" s="6">
         <v>100.0</v>
@@ -6205,12 +6219,12 @@
       <c r="AD85" s="7"/>
       <c r="AE85" s="7"/>
     </row>
-    <row r="86">
+    <row r="86" hidden="1">
       <c r="A86" s="6">
         <v>85.0</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>23</v>
@@ -6219,16 +6233,16 @@
         <v>23</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
@@ -6237,7 +6251,7 @@
       </c>
       <c r="L86" s="7"/>
       <c r="M86" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="N86" s="6">
         <v>0.0</v>
@@ -6252,7 +6266,7 @@
       <c r="T86" s="9"/>
       <c r="U86" s="7"/>
       <c r="V86" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W86" s="7"/>
       <c r="X86" s="7"/>
@@ -6264,12 +6278,12 @@
       <c r="AD86" s="7"/>
       <c r="AE86" s="7"/>
     </row>
-    <row r="87">
+    <row r="87" hidden="1">
       <c r="A87" s="6">
         <v>86.0</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>23</v>
@@ -6278,16 +6292,16 @@
         <v>23</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
@@ -6296,7 +6310,7 @@
       </c>
       <c r="L87" s="7"/>
       <c r="M87" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="N87" s="6">
         <v>99.0</v>
@@ -6311,7 +6325,7 @@
       <c r="T87" s="9"/>
       <c r="U87" s="7"/>
       <c r="V87" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W87" s="7"/>
       <c r="X87" s="7"/>
@@ -6323,12 +6337,12 @@
       <c r="AD87" s="7"/>
       <c r="AE87" s="7"/>
     </row>
-    <row r="88">
+    <row r="88" hidden="1">
       <c r="A88" s="6">
         <v>87.0</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>23</v>
@@ -6337,16 +6351,16 @@
         <v>23</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
@@ -6355,7 +6369,7 @@
       </c>
       <c r="L88" s="7"/>
       <c r="M88" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N88" s="6">
         <v>199.0</v>
@@ -6370,7 +6384,7 @@
       <c r="T88" s="9"/>
       <c r="U88" s="7"/>
       <c r="V88" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="W88" s="7"/>
       <c r="X88" s="7"/>
@@ -6382,12 +6396,12 @@
       <c r="AD88" s="7"/>
       <c r="AE88" s="7"/>
     </row>
-    <row r="89">
+    <row r="89" hidden="1">
       <c r="A89" s="6">
         <v>88.0</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>23</v>
@@ -6396,16 +6410,16 @@
         <v>23</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
@@ -6437,12 +6451,12 @@
       <c r="AD89" s="7"/>
       <c r="AE89" s="7"/>
     </row>
-    <row r="90">
+    <row r="90" hidden="1">
       <c r="A90" s="6">
         <v>89.0</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>23</v>
@@ -6451,16 +6465,16 @@
         <v>23</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
@@ -6492,12 +6506,12 @@
       <c r="AD90" s="7"/>
       <c r="AE90" s="7"/>
     </row>
-    <row r="91">
+    <row r="91" hidden="1">
       <c r="A91" s="6">
         <v>90.0</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>23</v>
@@ -6506,16 +6520,16 @@
         <v>23</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
@@ -6547,12 +6561,12 @@
       <c r="AD91" s="7"/>
       <c r="AE91" s="7"/>
     </row>
-    <row r="92">
+    <row r="92" hidden="1">
       <c r="A92" s="6">
         <v>91.0</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>23</v>
@@ -6561,16 +6575,16 @@
         <v>23</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
@@ -6583,7 +6597,7 @@
         <v>0.0</v>
       </c>
       <c r="O92" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
@@ -6602,12 +6616,12 @@
       <c r="AD92" s="7"/>
       <c r="AE92" s="7"/>
     </row>
-    <row r="93">
+    <row r="93" hidden="1">
       <c r="A93" s="6">
         <v>92.0</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>23</v>
@@ -6616,16 +6630,16 @@
         <v>23</v>
       </c>
       <c r="E93" s="8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>25</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I93" s="7"/>
       <c r="J93" s="7"/>
@@ -6638,7 +6652,7 @@
         <v>0.0</v>
       </c>
       <c r="O93" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
@@ -6659,27 +6673,53 @@
     </row>
     <row r="94">
       <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="7"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
+      <c r="B94" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="I94" s="7"/>
       <c r="J94" s="7"/>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
+      <c r="K94" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M94" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="N94" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="O94" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
       <c r="T94" s="9"/>
       <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
+      <c r="V94" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="W94" s="7"/>
       <c r="X94" s="7"/>
       <c r="Y94" s="7"/>
@@ -6692,27 +6732,53 @@
     </row>
     <row r="95">
       <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
+      <c r="B95" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="I95" s="7"/>
       <c r="J95" s="7"/>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
+      <c r="K95" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M95" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N95" s="6">
+        <v>40.0</v>
+      </c>
+      <c r="O95" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
       <c r="T95" s="9"/>
       <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
+      <c r="V95" s="6" t="s">
+        <v>58</v>
+      </c>
       <c r="W95" s="7"/>
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
@@ -6724,28 +6790,52 @@
       <c r="AE95" s="7"/>
     </row>
     <row r="96">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
+      <c r="A96" s="6"/>
+      <c r="B96" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>85</v>
+      </c>
       <c r="I96" s="7"/>
       <c r="J96" s="7"/>
-      <c r="K96" s="7"/>
+      <c r="K96" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="L96" s="7"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
+      <c r="M96" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="N96" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="O96" s="6" t="s">
+        <v>112</v>
+      </c>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
       <c r="S96" s="7"/>
       <c r="T96" s="9"/>
       <c r="U96" s="7"/>
-      <c r="V96" s="7"/>
+      <c r="V96" s="6" t="s">
+        <v>95</v>
+      </c>
       <c r="W96" s="7"/>
       <c r="X96" s="7"/>
       <c r="Y96" s="7"/>
@@ -36013,6 +36103,13 @@
       <c r="AE983" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$V$96">
+    <filterColumn colId="14">
+      <filters>
+        <filter val="cedarfiber"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -36052,7 +36149,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -36100,7 +36197,7 @@
         <v>20</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
@@ -36117,7 +36214,7 @@
         <v>414.0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>28</v>
@@ -36129,7 +36226,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>27</v>
@@ -36148,7 +36245,7 @@
         <v>0.0</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P2" s="6">
         <v>1000.0</v>
@@ -36163,10 +36260,10 @@
         <v>32</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U2" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V2" s="6">
         <v>0.0</v>
@@ -36186,7 +36283,7 @@
         <v>415.0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>28</v>
@@ -36198,7 +36295,7 @@
         <v>24</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>27</v>
@@ -36217,7 +36314,7 @@
         <v>139.0</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P3" s="6">
         <v>200.0</v>
@@ -36232,10 +36329,10 @@
         <v>32</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="U3" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V3" s="6">
         <v>1010.0</v>
@@ -36255,7 +36352,7 @@
         <v>416.0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>23</v>
@@ -36267,7 +36364,7 @@
         <v>24</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>27</v>
@@ -36286,7 +36383,7 @@
         <v>450.0</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P4" s="6">
         <v>200.0</v>
@@ -36301,10 +36398,10 @@
         <v>32</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V4" s="6">
         <v>1010.0</v>
@@ -36324,7 +36421,7 @@
         <v>417.0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>23</v>
@@ -36336,7 +36433,7 @@
         <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>27</v>
@@ -36355,7 +36452,7 @@
         <v>99.99</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P5" s="6">
         <v>200.0</v>
@@ -36370,10 +36467,10 @@
         <v>32</v>
       </c>
       <c r="T5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="U5" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>116</v>
       </c>
       <c r="V5" s="6">
         <v>1010.0</v>
@@ -36393,7 +36490,7 @@
         <v>418.0</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>28</v>
@@ -36405,7 +36502,7 @@
         <v>24</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>27</v>
@@ -36424,7 +36521,7 @@
         <v>300.0</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P6" s="6">
         <v>100.0</v>
@@ -36439,10 +36536,10 @@
         <v>32</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="U6" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V6" s="6">
         <v>1010.0</v>
@@ -36462,7 +36559,7 @@
         <v>419.0</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>23</v>
@@ -36474,7 +36571,7 @@
         <v>24</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>27</v>
@@ -36493,7 +36590,7 @@
         <v>499.0</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P7" s="6">
         <v>1000.0</v>
@@ -36508,10 +36605,10 @@
         <v>32</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="U7" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V7" s="6">
         <v>1010.0</v>
@@ -36531,7 +36628,7 @@
         <v>420.0</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>28</v>
@@ -36543,7 +36640,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>27</v>
@@ -36562,7 +36659,7 @@
         <v>299.0</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P8" s="6">
         <v>1000.0</v>
@@ -36577,10 +36674,10 @@
         <v>32</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="U8" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V8" s="6">
         <v>1010.0</v>
@@ -36600,7 +36697,7 @@
         <v>421.0</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>28</v>
@@ -36612,7 +36709,7 @@
         <v>24</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>27</v>
@@ -36631,7 +36728,7 @@
         <v>500.0</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P9" s="6">
         <v>1000.0</v>
@@ -36646,10 +36743,10 @@
         <v>32</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V9" s="6">
         <v>1010.0</v>
@@ -36669,7 +36766,7 @@
         <v>422.0</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>28</v>
@@ -36681,7 +36778,7 @@
         <v>24</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>27</v>
@@ -36700,7 +36797,7 @@
         <v>399.0</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P10" s="6">
         <v>1000.0</v>
@@ -36715,10 +36812,10 @@
         <v>32</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U10" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V10" s="6">
         <v>1010.0</v>
@@ -36738,7 +36835,7 @@
         <v>423.0</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>23</v>
@@ -36750,7 +36847,7 @@
         <v>24</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>27</v>
@@ -36769,7 +36866,7 @@
         <v>999.0</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P11" s="6">
         <v>1000.0</v>
@@ -36784,10 +36881,10 @@
         <v>32</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V11" s="6">
         <v>1010.0</v>
@@ -36807,7 +36904,7 @@
         <v>424.0</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>28</v>
@@ -36819,7 +36916,7 @@
         <v>24</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>27</v>
@@ -36838,7 +36935,7 @@
         <v>499.0</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P12" s="6">
         <v>1000.0</v>
@@ -36853,10 +36950,10 @@
         <v>32</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="U12" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V12" s="6">
         <v>1010.0</v>
@@ -36876,7 +36973,7 @@
         <v>425.0</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>28</v>
@@ -36888,7 +36985,7 @@
         <v>24</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>27</v>
@@ -36907,7 +37004,7 @@
         <v>199.0</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P13" s="6">
         <v>1000.0</v>
@@ -36922,10 +37019,10 @@
         <v>32</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V13" s="6">
         <v>1010.0</v>
@@ -36945,7 +37042,7 @@
         <v>426.0</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>23</v>
@@ -36971,7 +37068,7 @@
         <v>28</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M14" s="6" t="s">
         <v>38</v>
@@ -36980,7 +37077,7 @@
         <v>89.0</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P14" s="6">
         <v>1000.0</v>
@@ -36995,10 +37092,10 @@
         <v>32</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V14" s="6">
         <v>1010.0</v>
@@ -37018,7 +37115,7 @@
         <v>428.0</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>23</v>
@@ -37049,7 +37146,7 @@
         <v>0.0</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P15" s="6">
         <v>1000.0</v>
@@ -37064,10 +37161,10 @@
         <v>32</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V15" s="6">
         <v>1010.0</v>
@@ -37087,7 +37184,7 @@
         <v>432.0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>23</v>
@@ -37099,7 +37196,7 @@
         <v>24</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>27</v>
@@ -37118,7 +37215,7 @@
         <v>139.0</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P16" s="6">
         <v>1000.0</v>
@@ -37133,10 +37230,10 @@
         <v>32</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="U16" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V16" s="6">
         <v>1010.0</v>
@@ -37156,7 +37253,7 @@
         <v>435.0</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>23</v>
@@ -37168,7 +37265,7 @@
         <v>24</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>27</v>
@@ -37187,7 +37284,7 @@
         <v>89.0</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P17" s="6">
         <v>1000.0</v>
@@ -37202,10 +37299,10 @@
         <v>32</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V17" s="6">
         <v>1010.0</v>
@@ -37225,7 +37322,7 @@
         <v>437.0</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>23</v>
@@ -37237,7 +37334,7 @@
         <v>24</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>27</v>
@@ -37256,7 +37353,7 @@
         <v>0.0</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P18" s="6">
         <v>1000.0</v>
@@ -37271,10 +37368,10 @@
         <v>32</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="U18" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V18" s="6">
         <v>1010.0</v>
@@ -37294,7 +37391,7 @@
         <v>438.0</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>23</v>
@@ -37306,7 +37403,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>27</v>
@@ -37325,7 +37422,7 @@
         <v>0.0</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P19" s="6">
         <v>1000.0</v>
@@ -37340,10 +37437,10 @@
         <v>32</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V19" s="6">
         <v>0.0</v>
@@ -37363,7 +37460,7 @@
         <v>439.0</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>23</v>
@@ -37394,7 +37491,7 @@
         <v>0.0</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P20" s="6">
         <v>0.0</v>
@@ -37409,10 +37506,10 @@
         <v>32</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="U20" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V20" s="6">
         <v>0.0</v>
@@ -37432,7 +37529,7 @@
         <v>440.0</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>28</v>
@@ -37444,7 +37541,7 @@
         <v>24</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>27</v>
@@ -37463,7 +37560,7 @@
         <v>0.0</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P21" s="6">
         <v>1000.0</v>
@@ -37478,10 +37575,10 @@
         <v>32</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V21" s="6">
         <v>0.0</v>
@@ -37501,7 +37598,7 @@
         <v>477.0</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>23</v>
@@ -37532,7 +37629,7 @@
         <v>30.0</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P22" s="6">
         <v>1000.0</v>
@@ -37547,10 +37644,10 @@
         <v>32</v>
       </c>
       <c r="T22" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V22" s="6">
         <v>1010.0</v>
@@ -37570,7 +37667,7 @@
         <v>478.0</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>23</v>
@@ -37601,7 +37698,7 @@
         <v>0.0</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P23" s="6">
         <v>1000.0</v>
@@ -37616,10 +37713,10 @@
         <v>32</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V23" s="6">
         <v>1010.0</v>
@@ -37639,7 +37736,7 @@
         <v>518.0</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>23</v>
@@ -37648,14 +37745,14 @@
         <v>23</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -37668,7 +37765,7 @@
         <v>9.0</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P24" s="6" t="s">
         <v>27</v>
@@ -37683,10 +37780,10 @@
         <v>27</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="U24" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="V24" s="6">
         <v>0.0</v>
@@ -37706,7 +37803,7 @@
         <v>519.0</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>23</v>
@@ -37715,16 +37812,16 @@
         <v>28</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
@@ -37737,7 +37834,7 @@
         <v>19.0</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P25" s="6" t="s">
         <v>27</v>
@@ -37752,10 +37849,10 @@
         <v>27</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="U25" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="V25" s="6">
         <v>1010.0</v>
@@ -37775,7 +37872,7 @@
         <v>520.0</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>23</v>
@@ -37784,16 +37881,16 @@
         <v>28</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
@@ -37806,7 +37903,7 @@
         <v>39.0</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P26" s="6" t="s">
         <v>27</v>
@@ -37821,10 +37918,10 @@
         <v>27</v>
       </c>
       <c r="T26" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="U26" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="U26" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="V26" s="6">
         <v>1010.0</v>
@@ -37844,7 +37941,7 @@
         <v>521.0</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>23</v>
@@ -37853,16 +37950,16 @@
         <v>28</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
@@ -37875,7 +37972,7 @@
         <v>79.0</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>27</v>
@@ -37890,10 +37987,10 @@
         <v>27</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="U27" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="V27" s="6">
         <v>1010.0</v>
@@ -37913,7 +38010,7 @@
         <v>522.0</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>23</v>
@@ -37922,16 +38019,16 @@
         <v>28</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G28" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
@@ -37944,7 +38041,7 @@
         <v>149.0</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P28" s="6" t="s">
         <v>27</v>
@@ -37959,10 +38056,10 @@
         <v>27</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="V28" s="6">
         <v>1010.0</v>
@@ -37982,7 +38079,7 @@
         <v>523.0</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>23</v>
@@ -37991,16 +38088,16 @@
         <v>28</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
@@ -38013,7 +38110,7 @@
         <v>269.0</v>
       </c>
       <c r="O29" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P29" s="6" t="s">
         <v>27</v>
@@ -38028,10 +38125,10 @@
         <v>27</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="U29" s="6" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="V29" s="6">
         <v>1010.0</v>
@@ -38051,7 +38148,7 @@
         <v>524.0</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>23</v>
@@ -38060,16 +38157,16 @@
         <v>28</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
@@ -38082,7 +38179,7 @@
         <v>479.0</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>27</v>
@@ -38097,10 +38194,10 @@
         <v>27</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="U30" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="V30" s="6">
         <v>1010.0</v>
@@ -38120,7 +38217,7 @@
         <v>525.0</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>23</v>
@@ -38129,16 +38226,16 @@
         <v>28</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
@@ -38151,7 +38248,7 @@
         <v>849.0</v>
       </c>
       <c r="O31" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>27</v>
@@ -38166,10 +38263,10 @@
         <v>27</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="U31" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="V31" s="6">
         <v>1010.0</v>
@@ -38189,7 +38286,7 @@
         <v>526.0</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>28</v>
@@ -38198,16 +38295,16 @@
         <v>28</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
@@ -38220,7 +38317,7 @@
         <v>0.0</v>
       </c>
       <c r="O32" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P32" s="6" t="s">
         <v>27</v>
@@ -38235,10 +38332,10 @@
         <v>27</v>
       </c>
       <c r="T32" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="U32" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="U32" s="6" t="s">
-        <v>157</v>
       </c>
       <c r="V32" s="6">
         <v>1010.0</v>
@@ -38258,7 +38355,7 @@
         <v>527.0</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>28</v>
@@ -38267,14 +38364,14 @@
         <v>28</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
@@ -38287,7 +38384,7 @@
         <v>5.0</v>
       </c>
       <c r="O33" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P33" s="6" t="s">
         <v>27</v>
@@ -38302,10 +38399,10 @@
         <v>27</v>
       </c>
       <c r="T33" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="U33" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="V33" s="6">
         <v>1008.0</v>
@@ -38325,7 +38422,7 @@
         <v>528.0</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>28</v>
@@ -38334,14 +38431,14 @@
         <v>28</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
@@ -38354,7 +38451,7 @@
         <v>9.0</v>
       </c>
       <c r="O34" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P34" s="6" t="s">
         <v>27</v>
@@ -38369,10 +38466,10 @@
         <v>27</v>
       </c>
       <c r="T34" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="U34" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="V34" s="6">
         <v>1008.0</v>
@@ -38392,7 +38489,7 @@
         <v>559.0</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>23</v>
@@ -38401,14 +38498,14 @@
         <v>23</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -38416,14 +38513,14 @@
         <v>28</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M35" s="7"/>
       <c r="N35" s="13">
         <v>11.0</v>
       </c>
       <c r="O35" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P35" s="6" t="s">
         <v>27</v>
@@ -38438,10 +38535,10 @@
         <v>27</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="U35" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V35" s="6">
         <v>1008.0</v>
@@ -38461,7 +38558,7 @@
         <v>560.0</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>23</v>
@@ -38470,14 +38567,14 @@
         <v>23</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
@@ -38485,14 +38582,14 @@
         <v>28</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M36" s="7"/>
       <c r="N36" s="13">
         <v>18.0</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P36" s="6" t="s">
         <v>27</v>
@@ -38507,10 +38604,10 @@
         <v>27</v>
       </c>
       <c r="T36" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="U36" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V36" s="6">
         <v>1008.0</v>
@@ -38530,7 +38627,7 @@
         <v>595.0</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>23</v>
@@ -38539,7 +38636,7 @@
         <v>28</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>25</v>
@@ -38548,7 +38645,7 @@
         <v>26</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
@@ -38561,7 +38658,7 @@
         <v>0.0</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>27</v>
@@ -38576,10 +38673,10 @@
         <v>27</v>
       </c>
       <c r="T37" s="8" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="U37" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V37" s="6">
         <v>1008.0</v>
@@ -38599,7 +38696,7 @@
         <v>499.0</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>23</v>
@@ -38608,14 +38705,14 @@
         <v>28</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
@@ -38628,7 +38725,7 @@
         <v>0.0</v>
       </c>
       <c r="O38" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>27</v>
@@ -38643,10 +38740,10 @@
         <v>27</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="U38" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="V38" s="6">
         <v>1008.0</v>
@@ -38666,7 +38763,7 @@
         <v>500.0</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>23</v>
@@ -38675,14 +38772,14 @@
         <v>28</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
@@ -38695,7 +38792,7 @@
         <v>7.0</v>
       </c>
       <c r="O39" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P39" s="6" t="s">
         <v>27</v>
@@ -38710,10 +38807,10 @@
         <v>27</v>
       </c>
       <c r="T39" s="8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="U39" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="V39" s="6">
         <v>1008.0</v>
@@ -38733,7 +38830,7 @@
         <v>505.0</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>23</v>
@@ -38742,14 +38839,14 @@
         <v>23</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="6" t="s">
         <v>26</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
@@ -38762,7 +38859,7 @@
         <v>9.0</v>
       </c>
       <c r="O40" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P40" s="6" t="s">
         <v>27</v>
@@ -38777,10 +38874,10 @@
         <v>27</v>
       </c>
       <c r="T40" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="U40" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V40" s="6">
         <v>1008.0</v>
@@ -38800,7 +38897,7 @@
         <v>506.0</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>23</v>
@@ -38809,14 +38906,14 @@
         <v>23</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
@@ -38829,7 +38926,7 @@
         <v>179.0</v>
       </c>
       <c r="O41" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P41" s="6" t="s">
         <v>27</v>
@@ -38844,10 +38941,10 @@
         <v>27</v>
       </c>
       <c r="T41" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="U41" s="6" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="V41" s="6">
         <v>1004.0</v>
@@ -38867,7 +38964,7 @@
         <v>507.0</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>23</v>
@@ -38876,14 +38973,14 @@
         <v>23</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -38896,7 +38993,7 @@
         <v>49.0</v>
       </c>
       <c r="O42" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P42" s="6" t="s">
         <v>27</v>
@@ -38911,10 +39008,10 @@
         <v>27</v>
       </c>
       <c r="T42" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="U42" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V42" s="6">
         <v>1004.0</v>
@@ -38934,7 +39031,7 @@
         <v>508.0</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>23</v>
@@ -38943,14 +39040,14 @@
         <v>23</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -38963,7 +39060,7 @@
         <v>199.0</v>
       </c>
       <c r="O43" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P43" s="6" t="s">
         <v>27</v>
@@ -38978,10 +39075,10 @@
         <v>27</v>
       </c>
       <c r="T43" s="8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="U43" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V43" s="6">
         <v>1007.0</v>
@@ -39001,7 +39098,7 @@
         <v>509.0</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>23</v>
@@ -39010,16 +39107,16 @@
         <v>28</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -39032,7 +39129,7 @@
         <v>399.0</v>
       </c>
       <c r="O44" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P44" s="6" t="s">
         <v>27</v>
@@ -39047,10 +39144,10 @@
         <v>27</v>
       </c>
       <c r="T44" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="U44" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V44" s="6">
         <v>1007.0</v>
@@ -39070,7 +39167,7 @@
         <v>510.0</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>23</v>
@@ -39079,14 +39176,14 @@
         <v>23</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F45" s="7"/>
       <c r="G45" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -39099,7 +39196,7 @@
         <v>0.0</v>
       </c>
       <c r="O45" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P45" s="6" t="s">
         <v>27</v>
@@ -39114,10 +39211,10 @@
         <v>27</v>
       </c>
       <c r="T45" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="U45" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V45" s="6">
         <v>1007.0</v>
@@ -39137,7 +39234,7 @@
         <v>511.0</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>23</v>
@@ -39146,16 +39243,16 @@
         <v>28</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -39168,7 +39265,7 @@
         <v>0.0</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P46" s="6" t="s">
         <v>27</v>
@@ -39183,10 +39280,10 @@
         <v>27</v>
       </c>
       <c r="T46" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="U46" s="6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="V46" s="6">
         <v>1007.0</v>
@@ -39204,7 +39301,7 @@
     <row r="47">
       <c r="A47" s="6"/>
       <c r="B47" s="6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>23</v>
@@ -39213,14 +39310,14 @@
         <v>23</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -39233,7 +39330,7 @@
         <v>0.0</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P47" s="6" t="s">
         <v>27</v>
@@ -39248,10 +39345,10 @@
         <v>27</v>
       </c>
       <c r="T47" s="8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="U47" s="6" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="V47" s="6">
         <v>1007.0</v>
@@ -39269,7 +39366,7 @@
     <row r="48">
       <c r="A48" s="6"/>
       <c r="B48" s="6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>23</v>
@@ -39278,14 +39375,14 @@
         <v>28</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F48" s="7"/>
       <c r="G48" s="6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
@@ -39298,7 +39395,7 @@
         <v>0.0</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P48" s="6" t="s">
         <v>27</v>
@@ -39313,10 +39410,10 @@
         <v>27</v>
       </c>
       <c r="T48" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="U48" s="6" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V48" s="6">
         <v>1007.0</v>
